--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_187.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_187.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,610 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1538461538461539</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min'], ['C#:maj/F', 'G#:7', 'C#:maj'], ['A#:min', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(41.38, 43.34)]</t>
+          <t>[['D:min/A', 'A:7', 'D:min'], ['F:maj', 'C:7/E', 'F:maj'], ['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(140.48, 145.98)]</t>
+          <t>[('0:01:14.500000', '0:01:20.420000'), ('0:00:35.220000', '0:00:40'), ('0:00:11.700000', '0:00:20.020000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:02:04.300000', '0:02:09.240000'), ('0:00:34.640000', '0:00:39'), ('0:00:01', '0:00:05.360000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_39</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.04961948249619483</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_86</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03321205821205821</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Db', 'Db']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(92.53, 94.43)]</t>
+          <t>[['F:7', 'Bb', 'Bb'], ['Bb', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(115.08, 119.0)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:06.980000', '0:00:13.380000'), ('0:01:17.720000', '0:01:28')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:12.430000', '0:00:14.590000'), ('0:00:14.820000', '0:00:16.260000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1503759398496241</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:min', 'Db', 'C:min']]</t>
-        </is>
+          <t>jaah_23</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04596036585365854</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C']]</t>
+          <t>[['Bb', 'Bb', 'F:7']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(63.359, 69.226)]</t>
+          <t>[['F', 'F', 'C:7']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(180.06, 182.26)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:15.250000', '0:00:22.530000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:07.770000', '0:00:13.140000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
-        </is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_233</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1512605042016807</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
+          <t>[['G', 'D', 'E:min7']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.78, 98.82)]</t>
+          <t>[['Bb/2', 'F', 'G:min7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(2.7, 109.5)]</t>
+          <t>[('0:00:26.250000', '0:00:33.016000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:22.007000', '0:01:27.045000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2259615384615385</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(13.42, 19.5)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(83.2, 91.14)]</t>
+          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_66</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1352941176470588</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Bb:7', 'Eb', 'Eb', 'C:7', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Ab:7', 'Db', 'Db', 'Bb:7', 'Bb:7']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(64.07, 69.73)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(31.75, 38.43)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:00.780000', '0:00:16.040000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:00.220000', '0:00:15.080000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_199</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1455026455026455</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'D', 'G', 'C', 'D', 'G', 'C']]</t>
-        </is>
+          <t>isophonics_67</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_73</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.08542372881355932</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'A', 'D', 'G', 'A', 'D', 'G']]</t>
+          <t>[['G', 'C', 'A:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(11.14034, 19.859433)]</t>
+          <t>[['A', 'D', 'B:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(1.159256, 10.412408)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:31.957392', '0:01:37.773990')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:06.066780', '0:00:09.967732')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_62</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_197</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1658692185007974</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C#:min', 'A', 'B', 'E']]</t>
-        </is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.39375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F#:min', 'D', 'E', 'A']]</t>
+          <t>[['D/5', 'A', 'D'], ['A', 'D', 'A/3']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(19.476303, 29.878843)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(12.198799, 27.709728)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:12.743000', '0:00:16.216000'), ('0:00:13.527000', '0:00:17.058000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:22.380000', '0:02:25.800000'), ('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_115</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09973045822102425</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb:min', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G/5', 'G:min/5', 'D']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(39.61044, 45.427039)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(86.291723, 91.934172)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1988636363636364</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D#:min/F#', 'A#:maj/F', 'D#:min/F#']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min/4', 'A', 'D:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(73.7, 75.6)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(31.785035, 36.15069)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:06.920000', '0:01:08.180000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:19.140000', '0:00:22.240000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_70</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1973244147157191</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C', 'D:min', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Eb/3', 'F:min', 'Bb', 'Eb/5']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(78.91, 85.176)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(90.581065, 95.910045)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:13.800000', '0:00:18.440000'), ('0:00:24.260000', '0:00:27.200000'), ('0:00:19.120000', '0:00:20.760000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:10.940000', '0:00:14.560000'), ('0:00:19.260000', '0:00:22.260000'), ('0:00:15.120000', '0:00:16.420000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4395604395604396</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'F', 'C']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(47.01526, 67.077301)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(15.935351, 28.899196)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:25.180000', '0:00:48.160000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5133928571428572</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'E/4', 'D/5', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'G', 'F', 'C']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(19.647, 28.337)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(41.89526, 59.802639)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:00.780000', '0:01:36.780000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.233974358974359</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(37.94, 45.58)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(41.06, 45.16)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:17.900000', '0:01:52.420000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:13.400000', '0:01:28.140000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_0</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1642036124794745</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Ab']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(64.08, 73.88)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(63.01, 68.27)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_148</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_3</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1944444444444444</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(12.58, 20.98)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(44.07, 46.31)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:01:24.920000', '0:01:45.440000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:28.180000', '0:01:49.560000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
